--- a/tests/test1/d30/N, 0.3.xlsx
+++ b/tests/test1/d30/N, 0.3.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0004922000000036064</v>
+        <v>0.000339799999999002</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.000506200000003787</v>
+        <v>0.0007277999999999452</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.002102000000000714</v>
+        <v>0.0003075999999992973</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0005716999999947348</v>
+        <v>0.0003126000000008844</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0005246000000056483</v>
+        <v>0.0003231999999968593</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003498000000021761</v>
+        <v>0.0002836999999971113</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0009642000000056328</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003055999999972414</v>
+        <v>0.0005820000000014147</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003184000000047149</v>
+        <v>0.0005736000000027275</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003246999999930722</v>
+        <v>0.0003516000000018948</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004875999999995884</v>
+        <v>0.0003077000000004659</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0003054999999960728</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003349999999997522</v>
+        <v>0.0005251999999984491</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003092999999978474</v>
+        <v>0.0004915000000025316</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003463999999979706</v>
+        <v>0.0003217000000006465</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003238999999979342</v>
+        <v>0.0003410999999999831</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002919000000005667</v>
+        <v>0.0003087999999991098</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0004941999999985569</v>
+        <v>0.0003105999999988285</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.000327399999996203</v>
+        <v>0.000358300000002032</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0002883000000011293</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0003255999999964843</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002988999999971043</v>
+        <v>0.0002909000000030915</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003031000000035533</v>
+        <v>0.000294599999996592</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0004768000000012762</v>
+        <v>0.0002861999999979048</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003286000000031208</v>
+        <v>0.0003153999999980783</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003112999999999033</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.000297899999999629</v>
+        <v>0.0003026999999988789</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003270999999998025</v>
+        <v>0.0003172999999989656</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.00030569999999841</v>
+        <v>0.0002989000000042097</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003037999999975227</v>
+        <v>0.0002976999999972918</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003217999999947097</v>
+        <v>0.0002926999999957047</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0003273000000021398</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003032999999987851</v>
+        <v>0.0003022000000001412</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003036000000022909</v>
+        <v>0.0002944000000013602</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.0003389999999967586</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000304900000003272</v>
+        <v>0.000309399999999016</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002952000000036037</v>
+        <v>0.0003063999999994849</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003215999999994779</v>
+        <v>0.0009304000000014412</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.00030569999999841</v>
+        <v>0.0003178000000048087</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003318999999990524</v>
+        <v>0.000285899999994399</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003354000000044266</v>
+        <v>0.0003133999999960224</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.000316299999994385</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.000293800000001454</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0002952999999976669</v>
+        <v>0.0003054999999960728</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003523999999970329</v>
+        <v>0.0002883999999951925</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002952999999976669</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003108000000011657</v>
+        <v>0.0002883999999951925</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002868999999989796</v>
+        <v>0.0002984999999995352</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003156000000004155</v>
+        <v>0.0003048000000021034</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.0002951999999964983</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002926000000016415</v>
+        <v>0.0002922999999981357</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.0002916000000041663</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0003092000000037842</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.00030569999999841</v>
+        <v>0.0002908000000019229</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000293299999995611</v>
+        <v>0.0007276999999987765</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003112999999999033</v>
+        <v>0.000313499999997191</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002974000000008914</v>
+        <v>0.0002964999999974793</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.000290899999995986</v>
+        <v>0.0002917999999993981</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003400000000013392</v>
+        <v>0.0003255000000024211</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003247000000001776</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0003018999999966354</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003063000000054217</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.000309799999996585</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003036999999963541</v>
+        <v>0.0003306999999992399</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002914999999958923</v>
+        <v>0.0002889000000010356</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.000346800000002645</v>
+        <v>0.0003498000000021761</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.000296999999996217</v>
+        <v>0.0003349999999997522</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003257999999988215</v>
+        <v>0.0003346999999962463</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003022000000001412</v>
+        <v>0.0003012999999967292</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003012999999967292</v>
+        <v>0.0003085000000027094</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0003582000000008634</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003041999999950917</v>
+        <v>0.0003148999999993407</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0003054000000020096</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0002964000000034162</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003108000000011657</v>
+        <v>0.0003273000000021398</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003119999999938727</v>
+        <v>0.0003954999999962183</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002980999999948608</v>
+        <v>0.0003075000000052341</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003267000000022335</v>
+        <v>0.0003309000000015772</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002879999999976235</v>
+        <v>0.0002940999999978544</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002880000000047289</v>
+        <v>0.0003197999999997592</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003551000000001636</v>
+        <v>0.0003746000000006688</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003534999999956767</v>
+        <v>0.0003170999999966284</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003572000000033881</v>
+        <v>0.0003101000000000909</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0005939999999995393</v>
+        <v>0.0003403999999989082</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0005366999999978361</v>
+        <v>0.0003275999999985402</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0004757000000026324</v>
+        <v>0.000313499999997191</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003486000000023637</v>
+        <v>0.0005607000000011908</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0005581000000063341</v>
+        <v>0.0003254000000012525</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003349999999997522</v>
+        <v>0.0003382000000016205</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003267000000022335</v>
+        <v>0.0007225000000019577</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000496800000000519</v>
+        <v>0.0003366000000042391</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0003005999999956543</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003163999999955536</v>
+        <v>0.0003310999999968089</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003092999999978474</v>
+        <v>0.0003644999999963261</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003284000000007836</v>
+        <v>0.0004737999999946396</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003160999999991532</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003025000000036471</v>
+        <v>0.0003851000000025806</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003208000000043398</v>
+        <v>0.0003002999999992539</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.3.xlsx
+++ b/tests/test1/d30/N, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000339799999999002</v>
+        <v>0.0003750000000053433</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0007277999999999452</v>
+        <v>0.0003870999999975311</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0009477999999916165</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0003267999999962967</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003231999999968593</v>
+        <v>0.0003030000000023847</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002836999999971113</v>
+        <v>0.0007364999999879274</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0009642000000056328</v>
+        <v>0.0003169999999954598</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005820000000014147</v>
+        <v>0.0006088999999889211</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005736000000027275</v>
+        <v>0.000321199999987698</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003516000000018948</v>
+        <v>0.000316299999994385</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003077000000004659</v>
+        <v>0.000317999999992935</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003054999999960728</v>
+        <v>0.0003109999999963975</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005251999999984491</v>
+        <v>0.000323800000003871</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0004915000000025316</v>
+        <v>0.0002944000000013602</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003217000000006465</v>
+        <v>0.0003563000000070815</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003410999999999831</v>
+        <v>0.0003539000000074566</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0003491000000082067</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003105999999988285</v>
+        <v>0.001311900000004584</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.000358300000002032</v>
+        <v>0.0003378999999910093</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0002883000000011293</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003255999999964843</v>
+        <v>0.0003421999999915215</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002909000000030915</v>
+        <v>0.0005244999999973743</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.000294599999996592</v>
+        <v>0.0003356999999937216</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002861999999979048</v>
+        <v>0.000335999999990122</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003153999999980783</v>
+        <v>0.0006434999999953561</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003026999999988789</v>
+        <v>0.000315600000007521</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003172999999989656</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002989000000042097</v>
+        <v>0.0003004000000004226</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002976999999972918</v>
+        <v>0.0003209000000055084</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002926999999957047</v>
+        <v>0.0003010000000074342</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003273000000021398</v>
+        <v>0.0002955000000071095</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003022000000001412</v>
+        <v>0.0004714000000092256</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.0003193000000010215</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003389999999967586</v>
+        <v>0.0003086999999908357</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000309399999999016</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.000325399999994147</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0009304000000014412</v>
+        <v>0.0002928000000110842</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003178000000048087</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000285899999994399</v>
+        <v>0.000321299999995972</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003133999999960224</v>
+        <v>0.00030569999999841</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000316299999994385</v>
+        <v>0.0003032999999987851</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.000293800000001454</v>
+        <v>0.0003873999999939315</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003054999999960728</v>
+        <v>0.0003059000000007472</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002883999999951925</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003073999999969601</v>
+        <v>0.0003538999999932457</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002883999999951925</v>
+        <v>0.0003250999999977466</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0002993000000088841</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003048000000021034</v>
+        <v>0.000316299999994385</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002951999999964983</v>
+        <v>0.0003191999999927475</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0002929999999992106</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002916000000041663</v>
+        <v>0.0003122000000104208</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003092000000037842</v>
+        <v>0.0004576000000042768</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002908000000019229</v>
+        <v>0.0003194000000092956</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0007276999999987765</v>
+        <v>0.0003021999999930358</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.000313499999997191</v>
+        <v>0.0002952000000107091</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002964999999974793</v>
+        <v>0.000323800000003871</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0003462000000098442</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0002960999999999103</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002865000000014106</v>
+        <v>0.0003210999999936348</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.0002972999999997228</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.000309100000009721</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.000309799999996585</v>
+        <v>0.0004520000000098889</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003306999999992399</v>
+        <v>0.0003332000000000335</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002889000000010356</v>
+        <v>0.0002972000000056596</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003498000000021761</v>
+        <v>0.0003158999999897105</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0003336000000047079</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003349999999997522</v>
+        <v>0.0003118999999998096</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002870000000001482</v>
+        <v>0.0003021000000131835</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003346999999962463</v>
+        <v>0.0003302000000076077</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003012999999967292</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003085000000027094</v>
+        <v>0.0003104000000035967</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003582000000008634</v>
+        <v>0.0002917999999993981</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003148999999993407</v>
+        <v>0.00032039999999256</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0003101000000071963</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002964000000034162</v>
+        <v>0.0002887999999927615</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003273000000021398</v>
+        <v>0.0003439000000042824</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003954999999962183</v>
+        <v>0.0003108999999881235</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003075000000052341</v>
+        <v>0.0003240000000062082</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003309000000015772</v>
+        <v>0.0005115000000017744</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002940999999978544</v>
+        <v>0.0003144000000077085</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0003001999999980853</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003746000000006688</v>
+        <v>0.0003025000000036471</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003170999999966284</v>
+        <v>0.0003333999999881598</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003101000000000909</v>
+        <v>0.0003197999999997592</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003403999999989082</v>
+        <v>0.0002962000000081844</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003275999999985402</v>
+        <v>0.000316500000010933</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.000313499999997191</v>
+        <v>0.0003090999999955102</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0005607000000011908</v>
+        <v>0.0003087000000050466</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003254000000012525</v>
+        <v>0.0003238999999979342</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003382000000016205</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0007225000000019577</v>
+        <v>0.0003012999999896238</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003366000000042391</v>
+        <v>0.0003305999999980713</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003005999999956543</v>
+        <v>0.0003296000000005961</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003310999999968089</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003644999999963261</v>
+        <v>0.0003210999999936348</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0004737999999946396</v>
+        <v>0.0003198999999938223</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0003042000000021972</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003851000000025806</v>
+        <v>0.0002988000000101465</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0003712999999976319</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.3.xlsx
+++ b/tests/test1/d30/N, 0.3.xlsx
@@ -532,13 +532,13 @@
         <v>359.4707842962097</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29636883161795</v>
+        <v>28.29636883163166</v>
       </c>
       <c r="G2" t="n">
-        <v>92.54834450809474</v>
+        <v>92.54834450809494</v>
       </c>
       <c r="H2" t="n">
-        <v>11.50793975377583</v>
+        <v>11.50793975378301</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>30.3992171699962</v>
+        <v>30.39921716999736</v>
       </c>
       <c r="L2" t="n">
-        <v>29.05993886853612</v>
+        <v>29.05993886855186</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1246780400508931</v>
+        <v>0.1246780400507668</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2237073888364051</v>
+        <v>0.2237073888336654</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003750000000053433</v>
+        <v>0.0002457999999947447</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.512696390901</v>
       </c>
       <c r="F3" t="n">
-        <v>27.02818560272869</v>
+        <v>27.02818560272538</v>
       </c>
       <c r="G3" t="n">
-        <v>69.26049064443849</v>
+        <v>69.26049064443808</v>
       </c>
       <c r="H3" t="n">
-        <v>11.34436114065202</v>
+        <v>11.3443611406502</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>25.06561473460244</v>
+        <v>25.06561473460216</v>
       </c>
       <c r="L3" t="n">
-        <v>32.27071330578266</v>
+        <v>32.27071330577817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1273106979966487</v>
+        <v>0.127310697996682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3750739848531254</v>
+        <v>0.3750739848538159</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003870999999975311</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.1250273542216417</v>
       </c>
       <c r="F4" t="n">
-        <v>28.19008647343876</v>
+        <v>28.19008647343874</v>
       </c>
       <c r="G4" t="n">
-        <v>112.2070099130903</v>
+        <v>112.2070099130924</v>
       </c>
       <c r="H4" t="n">
-        <v>2.741571917583817</v>
+        <v>2.741571917583837</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -654,13 +654,13 @@
         <v>9.97201847275619</v>
       </c>
       <c r="L4" t="n">
-        <v>24.70343968820746</v>
+        <v>24.70343968820731</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1051276461278671</v>
+        <v>0.1051276461278677</v>
       </c>
       <c r="N4" t="n">
-        <v>1.555701796220794</v>
+        <v>1.555701796220841</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0009477999999916165</v>
+        <v>0.0002483000000026436</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.4634114579709</v>
       </c>
       <c r="F5" t="n">
-        <v>27.56846801098939</v>
+        <v>27.56846801098231</v>
       </c>
       <c r="G5" t="n">
-        <v>92.67731178554898</v>
+        <v>92.67731178554924</v>
       </c>
       <c r="H5" t="n">
-        <v>11.03101257811736</v>
+        <v>11.03101257811365</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>30.15273762629646</v>
+        <v>30.15273762629582</v>
       </c>
       <c r="L5" t="n">
-        <v>28.14024682367518</v>
+        <v>28.14024682366699</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1466880206170728</v>
+        <v>0.1466880206171522</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3916416502685415</v>
+        <v>0.3916416502699657</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003267999999962967</v>
+        <v>0.0001950999999991154</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9848314878572</v>
       </c>
       <c r="F6" t="n">
-        <v>28.78986784728981</v>
+        <v>28.78986784728871</v>
       </c>
       <c r="G6" t="n">
-        <v>175.2306195288452</v>
+        <v>175.2306195288459</v>
       </c>
       <c r="H6" t="n">
-        <v>9.505184975517006</v>
+        <v>9.505184975516658</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>8.114751482220827</v>
+        <v>8.114751482220599</v>
       </c>
       <c r="L6" t="n">
-        <v>14.95653171576275</v>
+        <v>14.95653171576204</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09061361742538547</v>
+        <v>0.09061361742539621</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2385007037543429</v>
+        <v>0.2385007037545801</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0001923000000019215</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.8676317539345</v>
       </c>
       <c r="F7" t="n">
-        <v>27.06027896903602</v>
+        <v>27.06027896903822</v>
       </c>
       <c r="G7" t="n">
-        <v>38.79676623126687</v>
+        <v>38.79676623126601</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1992639141683</v>
+        <v>12.19926391417026</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>15.99924092208656</v>
+        <v>15.9992409220867</v>
       </c>
       <c r="L7" t="n">
-        <v>37.29790268899585</v>
+        <v>37.2979026890002</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09961998233105376</v>
+        <v>0.09961998233103248</v>
       </c>
       <c r="N7" t="n">
-        <v>0.471648950941651</v>
+        <v>0.4716489509410992</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0007364999999879274</v>
+        <v>0.0001949999999979468</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.09353510204625504</v>
       </c>
       <c r="F8" t="n">
-        <v>28.40235593819937</v>
+        <v>28.40235593819942</v>
       </c>
       <c r="G8" t="n">
-        <v>166.123330393394</v>
+        <v>166.1233303933939</v>
       </c>
       <c r="H8" t="n">
-        <v>7.477883363879309</v>
+        <v>7.477883363879299</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>11.16166485457869</v>
+        <v>11.1616648545787</v>
       </c>
       <c r="L8" t="n">
-        <v>17.40358365406523</v>
+        <v>17.40358365406529</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09063712531588991</v>
+        <v>0.09063712531588944</v>
       </c>
       <c r="N8" t="n">
-        <v>0.586698867240764</v>
+        <v>0.5866988672407517</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003169999999954598</v>
+        <v>0.0001875999999967348</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.4928422888599</v>
       </c>
       <c r="F9" t="n">
-        <v>24.17411641137541</v>
+        <v>24.17411641137569</v>
       </c>
       <c r="G9" t="n">
-        <v>10.45967718688875</v>
+        <v>10.45967718688878</v>
       </c>
       <c r="H9" t="n">
-        <v>15.40067282785314</v>
+        <v>15.40067282785367</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>6.193490759455448</v>
+        <v>6.193490759455486</v>
       </c>
       <c r="L9" t="n">
-        <v>39.96377665332744</v>
+        <v>39.96377665332835</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1281793202364931</v>
+        <v>0.1281793202364883</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8330602391041404</v>
+        <v>0.8330602391042038</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0006088999999889211</v>
+        <v>0.0002440000000021314</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9726385850141</v>
       </c>
       <c r="F10" t="n">
-        <v>28.13041110056501</v>
+        <v>28.13041110056263</v>
       </c>
       <c r="G10" t="n">
-        <v>157.8314451016683</v>
+        <v>157.8314451016693</v>
       </c>
       <c r="H10" t="n">
-        <v>13.60126209693466</v>
+        <v>13.60126209693335</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>35.12611445142257</v>
+        <v>35.12611445142218</v>
       </c>
       <c r="L10" t="n">
-        <v>12.71452646675953</v>
+        <v>12.71452646675823</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1098346054551807</v>
+        <v>0.1098346054552078</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3853045097232463</v>
+        <v>0.3853045097237438</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.000321199999987698</v>
+        <v>0.0001894999999976221</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9996674335863</v>
       </c>
       <c r="F11" t="n">
-        <v>28.30540758638157</v>
+        <v>28.30540758638165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1047561470561091</v>
+        <v>0.1047561470560582</v>
       </c>
       <c r="H11" t="n">
-        <v>6.387865153289606</v>
+        <v>6.387865153289391</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1018,13 +1018,13 @@
         <v>2.033525827471294</v>
       </c>
       <c r="L11" t="n">
-        <v>33.37548919636144</v>
+        <v>33.37548919636126</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1043354233342681</v>
+        <v>0.1043354233342684</v>
       </c>
       <c r="N11" t="n">
-        <v>1.048340236581498</v>
+        <v>1.048340236581567</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.000316299999994385</v>
+        <v>0.0001895999999987907</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.6005240487611</v>
       </c>
       <c r="F12" t="n">
-        <v>27.48401167020316</v>
+        <v>27.48401167020196</v>
       </c>
       <c r="G12" t="n">
-        <v>79.19330425942324</v>
+        <v>79.19330425942482</v>
       </c>
       <c r="H12" t="n">
-        <v>2.433314438989441</v>
+        <v>2.433314438989192</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1067,16 +1067,16 @@
         <v>24.73231265962071</v>
       </c>
       <c r="K12" t="n">
-        <v>8.607600462449165</v>
+        <v>8.607600462449012</v>
       </c>
       <c r="L12" t="n">
-        <v>25.70398142844101</v>
+        <v>25.70398142843966</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1023508164133226</v>
+        <v>0.1023508164133325</v>
       </c>
       <c r="N12" t="n">
-        <v>2.204773947441945</v>
+        <v>2.204773947442049</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.000317999999992935</v>
+        <v>0.0002149999999971897</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.4751635776084</v>
       </c>
       <c r="F13" t="n">
-        <v>24.70919922177777</v>
+        <v>24.70919922177816</v>
       </c>
       <c r="G13" t="n">
-        <v>13.81431603227367</v>
+        <v>13.81431603227394</v>
       </c>
       <c r="H13" t="n">
-        <v>7.930744867941406</v>
+        <v>7.930744867941556</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1119,16 +1119,16 @@
         <v>30.83028323690103</v>
       </c>
       <c r="K13" t="n">
-        <v>5.861154942196221</v>
+        <v>5.86115494219626</v>
       </c>
       <c r="L13" t="n">
-        <v>31.49807760810969</v>
+        <v>31.49807760811025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1296620880886379</v>
+        <v>0.1296620880886336</v>
       </c>
       <c r="N13" t="n">
-        <v>4.181923519736823</v>
+        <v>4.181923519736948</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003109999999963975</v>
+        <v>0.0001908999999997718</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.858104250553</v>
       </c>
       <c r="F14" t="n">
-        <v>27.15426580196937</v>
+        <v>27.15426580197201</v>
       </c>
       <c r="G14" t="n">
-        <v>25.68305895209286</v>
+        <v>25.6830589520936</v>
       </c>
       <c r="H14" t="n">
-        <v>11.5523078892835</v>
+        <v>11.55230788928509</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1171,16 +1171,16 @@
         <v>40.75574104258677</v>
       </c>
       <c r="K14" t="n">
-        <v>10.87042308615075</v>
+        <v>10.87042308615098</v>
       </c>
       <c r="L14" t="n">
-        <v>37.70763853923992</v>
+        <v>37.70763853924431</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1068733798052776</v>
+        <v>0.1068733798052552</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2891936343780019</v>
+        <v>0.2891936343774136</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.000323800000003871</v>
+        <v>0.0002423999999976445</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.213717198615172</v>
       </c>
       <c r="F15" t="n">
-        <v>28.13433541255994</v>
+        <v>28.13433541256062</v>
       </c>
       <c r="G15" t="n">
-        <v>151.9269169202387</v>
+        <v>151.926916920237</v>
       </c>
       <c r="H15" t="n">
-        <v>6.239226983214559</v>
+        <v>6.239226983214594</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1223,16 +1223,16 @@
         <v>22.72893730129499</v>
       </c>
       <c r="K15" t="n">
-        <v>14.23823366672954</v>
+        <v>14.23823366672962</v>
       </c>
       <c r="L15" t="n">
-        <v>19.51092094069312</v>
+        <v>19.51092094069389</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09044123134891409</v>
+        <v>0.09044123134890812</v>
       </c>
       <c r="N15" t="n">
-        <v>0.761873533337474</v>
+        <v>0.7618735333373763</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.000190999999993835</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.5345982666241</v>
       </c>
       <c r="F16" t="n">
-        <v>27.60419165097379</v>
+        <v>27.60419165095689</v>
       </c>
       <c r="G16" t="n">
-        <v>86.50558091339897</v>
+        <v>86.50558091340049</v>
       </c>
       <c r="H16" t="n">
-        <v>11.91327100357836</v>
+        <v>11.91327100356873</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>30.47349434149088</v>
+        <v>30.47349434148958</v>
       </c>
       <c r="L16" t="n">
-        <v>30.00273608980777</v>
+        <v>30.00273608978651</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1364804574061378</v>
+        <v>0.1364804574063167</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3454334933184781</v>
+        <v>0.3454334933218605</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003563000000070815</v>
+        <v>0.0001893000000023903</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.09369854446306079</v>
       </c>
       <c r="F17" t="n">
-        <v>28.26307202159251</v>
+        <v>28.263072021592</v>
       </c>
       <c r="G17" t="n">
-        <v>160.6199839940417</v>
+        <v>160.6199839940419</v>
       </c>
       <c r="H17" t="n">
-        <v>5.56905023841128</v>
+        <v>5.569050238411099</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>10.0679633601681</v>
+        <v>10.067963360168</v>
       </c>
       <c r="L17" t="n">
-        <v>19.64498417259362</v>
+        <v>19.6449841725933</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09882805057141553</v>
+        <v>0.09882805057141995</v>
       </c>
       <c r="N17" t="n">
-        <v>0.6646967580380864</v>
+        <v>0.6646967580380468</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003539000000074566</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9616153836598</v>
       </c>
       <c r="F18" t="n">
-        <v>27.00418072336551</v>
+        <v>27.00418072336497</v>
       </c>
       <c r="G18" t="n">
-        <v>40.0542198485544</v>
+        <v>40.05421984855555</v>
       </c>
       <c r="H18" t="n">
-        <v>7.88657642754136</v>
+        <v>7.886576427540785</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>12.89628366559231</v>
+        <v>12.89628366559227</v>
       </c>
       <c r="L18" t="n">
-        <v>32.450352213869</v>
+        <v>32.45035221386777</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08432677706367563</v>
+        <v>0.08432677706368087</v>
       </c>
       <c r="N18" t="n">
-        <v>0.629761819726686</v>
+        <v>0.6297618197268753</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003491000000082067</v>
+        <v>0.0002065000000044392</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9171202329936</v>
       </c>
       <c r="F19" t="n">
-        <v>26.96282793210961</v>
+        <v>26.96282793211184</v>
       </c>
       <c r="G19" t="n">
-        <v>51.44684375143085</v>
+        <v>51.44684375143297</v>
       </c>
       <c r="H19" t="n">
-        <v>8.329457217261448</v>
+        <v>8.329457217262116</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1431,16 +1431,16 @@
         <v>35.61949574546529</v>
       </c>
       <c r="K19" t="n">
-        <v>16.31223115555528</v>
+        <v>16.31223115555553</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85839090251341</v>
+        <v>31.85839090251599</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1041861392841672</v>
+        <v>0.1041861392841514</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5546390011825424</v>
+        <v>0.5546390011821267</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.001311900000004584</v>
+        <v>0.0002520999999973128</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9761714668581</v>
       </c>
       <c r="F20" t="n">
-        <v>27.63012727376726</v>
+        <v>27.63012727376463</v>
       </c>
       <c r="G20" t="n">
-        <v>118.6650866821525</v>
+        <v>118.6650866821554</v>
       </c>
       <c r="H20" t="n">
-        <v>8.163152030988163</v>
+        <v>8.163152030987154</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>25.64797539773753</v>
+        <v>25.64797539773728</v>
       </c>
       <c r="L20" t="n">
-        <v>22.53522007391841</v>
+        <v>22.53522007391561</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1023836653045214</v>
+        <v>0.1023836653045444</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4930156337223477</v>
+        <v>0.4930156337229425</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003378999999910093</v>
+        <v>0.000205000000001121</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9336990211954</v>
       </c>
       <c r="F21" t="n">
-        <v>26.77359914509463</v>
+        <v>26.77359914509496</v>
       </c>
       <c r="G21" t="n">
-        <v>16.33642699201464</v>
+        <v>16.33642699201516</v>
       </c>
       <c r="H21" t="n">
-        <v>10.84965433544272</v>
+        <v>10.84965433544243</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1535,16 +1535,16 @@
         <v>41.64062699719003</v>
       </c>
       <c r="K21" t="n">
-        <v>7.463676927214766</v>
+        <v>7.463676927214792</v>
       </c>
       <c r="L21" t="n">
-        <v>36.96434350376767</v>
+        <v>36.96434350376764</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09922781599619698</v>
+        <v>0.09922781599619677</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5358635253246187</v>
+        <v>0.5358635253246602</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.7348320662148</v>
       </c>
       <c r="F22" t="n">
-        <v>27.61630632377982</v>
+        <v>27.61630632377361</v>
       </c>
       <c r="G22" t="n">
-        <v>103.7480918733365</v>
+        <v>103.748091873338</v>
       </c>
       <c r="H22" t="n">
-        <v>12.68328985977141</v>
+        <v>12.68328985976772</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>36.50739077123438</v>
+        <v>36.50739077123391</v>
       </c>
       <c r="L22" t="n">
-        <v>26.60251587738137</v>
+        <v>26.60251587737432</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1046395436932773</v>
+        <v>0.1046395436933281</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4213520158368328</v>
+        <v>0.4213520158379918</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003421999999915215</v>
+        <v>0.0001913000000044462</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01558927485166555</v>
       </c>
       <c r="F23" t="n">
-        <v>28.75378840591686</v>
+        <v>28.75378840591618</v>
       </c>
       <c r="G23" t="n">
-        <v>8.847604421510198</v>
+        <v>8.84760442150885</v>
       </c>
       <c r="H23" t="n">
-        <v>4.650524492043425</v>
+        <v>4.650524492044048</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>3.681605791138408</v>
+        <v>3.68160579113837</v>
       </c>
       <c r="L23" t="n">
-        <v>31.71710505223519</v>
+        <v>31.71710505223527</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1009598096123969</v>
+        <v>0.1009598096123986</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9069810764771344</v>
+        <v>0.9069810764768634</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0005244999999973743</v>
+        <v>0.0001906000000033714</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.02758497595955204</v>
       </c>
       <c r="F24" t="n">
-        <v>27.4986335851488</v>
+        <v>27.49863358514859</v>
       </c>
       <c r="G24" t="n">
         <v>40.92886767308651</v>
       </c>
       <c r="H24" t="n">
-        <v>6.708776018092462</v>
+        <v>6.708776018092369</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>11.78035562167062</v>
+        <v>11.78035562167059</v>
       </c>
       <c r="L24" t="n">
-        <v>31.63086012153988</v>
+        <v>31.63086012153957</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1119785212822538</v>
+        <v>0.1119785212822558</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9502070207403476</v>
+        <v>0.9502070207403952</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003356999999937216</v>
+        <v>0.0002457000000006815</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.799903583094</v>
       </c>
       <c r="F25" t="n">
-        <v>27.32572180414024</v>
+        <v>27.32572180413438</v>
       </c>
       <c r="G25" t="n">
-        <v>91.53688934883856</v>
+        <v>91.53688934883988</v>
       </c>
       <c r="H25" t="n">
-        <v>13.08937032310774</v>
+        <v>13.08937032310401</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>34.63436163668272</v>
+        <v>34.63436163668233</v>
       </c>
       <c r="L25" t="n">
-        <v>29.51876924622098</v>
+        <v>29.51876924621341</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09657824824102679</v>
+        <v>0.09657824824107281</v>
       </c>
       <c r="N25" t="n">
-        <v>0.441685174819489</v>
+        <v>0.4416851748205967</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000335999999990122</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.6012363482052</v>
       </c>
       <c r="F26" t="n">
-        <v>28.31050650466131</v>
+        <v>28.31050650466166</v>
       </c>
       <c r="G26" t="n">
-        <v>167.9591961789309</v>
+        <v>167.9591961789302</v>
       </c>
       <c r="H26" t="n">
-        <v>8.8044477520606</v>
+        <v>8.804447752060529</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>11.68718815775239</v>
+        <v>11.68718815775246</v>
       </c>
       <c r="L26" t="n">
-        <v>15.6857611828666</v>
+        <v>15.68576118286708</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1080918323296829</v>
+        <v>0.1080918323296794</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8994543173936123</v>
+        <v>0.8994543173936882</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0006434999999953561</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9315180731002</v>
       </c>
       <c r="F27" t="n">
-        <v>28.6476691014533</v>
+        <v>28.64766910145471</v>
       </c>
       <c r="G27" t="n">
-        <v>156.6880906212515</v>
+        <v>156.6880906212507</v>
       </c>
       <c r="H27" t="n">
-        <v>9.413419980663765</v>
+        <v>9.413419980664274</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>19.70113622483431</v>
+        <v>19.70113622483454</v>
       </c>
       <c r="L27" t="n">
-        <v>16.63085538284503</v>
+        <v>16.63085538284603</v>
       </c>
       <c r="M27" t="n">
-        <v>0.105303998451837</v>
+        <v>0.105303998451824</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2671367282649777</v>
+        <v>0.2671367282646757</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0001908999999997718</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.941202036502</v>
       </c>
       <c r="F28" t="n">
-        <v>27.33378506993184</v>
+        <v>27.33378506992743</v>
       </c>
       <c r="G28" t="n">
-        <v>55.43136451735865</v>
+        <v>55.43136451735983</v>
       </c>
       <c r="H28" t="n">
-        <v>8.093086681001658</v>
+        <v>8.093086680999448</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>16.82289049636777</v>
+        <v>16.82289049636737</v>
       </c>
       <c r="L28" t="n">
-        <v>31.57922795292821</v>
+        <v>31.57922795292178</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09745633810359959</v>
+        <v>0.09745633810363584</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5244301814791138</v>
+        <v>0.5244301814801458</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.000315600000007521</v>
+        <v>0.0001944999999992092</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.6143183754303</v>
       </c>
       <c r="F29" t="n">
-        <v>27.17328883147148</v>
+        <v>27.17328883147842</v>
       </c>
       <c r="G29" t="n">
-        <v>72.76491836491782</v>
+        <v>72.76491836491884</v>
       </c>
       <c r="H29" t="n">
-        <v>12.12715603156954</v>
+        <v>12.12715603157348</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>27.27917930612049</v>
+        <v>27.27917930612108</v>
       </c>
       <c r="L29" t="n">
-        <v>32.48049485596027</v>
+        <v>32.48049485596953</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1188770643691987</v>
+        <v>0.1188770643691348</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3868037837406</v>
+        <v>0.386803783739213</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0002381999999983009</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.866100286639</v>
       </c>
       <c r="F30" t="n">
-        <v>28.22172177848065</v>
+        <v>28.22172177848027</v>
       </c>
       <c r="G30" t="n">
-        <v>129.8243242823287</v>
+        <v>129.8243242823298</v>
       </c>
       <c r="H30" t="n">
-        <v>8.98304712747413</v>
+        <v>8.983047127474022</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>26.64489778579361</v>
+        <v>26.6448977857936</v>
       </c>
       <c r="L30" t="n">
-        <v>20.92362887134759</v>
+        <v>20.92362887134707</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09592933104442265</v>
+        <v>0.09592933104442594</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3603276171397884</v>
+        <v>0.3603276171398344</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.1252446378913628</v>
       </c>
       <c r="F31" t="n">
-        <v>28.31620860368034</v>
+        <v>28.31620860367956</v>
       </c>
       <c r="G31" t="n">
-        <v>161.7392379827446</v>
+        <v>161.7392379827454</v>
       </c>
       <c r="H31" t="n">
-        <v>6.740046686272424</v>
+        <v>6.74004668627226</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>11.8070320166259</v>
+        <v>11.80703201662579</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40851681632763</v>
+        <v>18.40851681632697</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1021404883703334</v>
+        <v>0.1021404883703414</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5488039123782416</v>
+        <v>0.5488039123782797</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003209000000055084</v>
+        <v>0.0002051000000022896</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.3792157994329175</v>
       </c>
       <c r="F32" t="n">
-        <v>26.29279323284676</v>
+        <v>26.29279323285044</v>
       </c>
       <c r="G32" t="n">
-        <v>130.8615424511557</v>
+        <v>130.8615424511481</v>
       </c>
       <c r="H32" t="n">
-        <v>6.517432324419784</v>
+        <v>6.517432324420771</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>21.36286316261958</v>
+        <v>21.36286316262001</v>
       </c>
       <c r="L32" t="n">
-        <v>19.92838633794965</v>
+        <v>19.92838633795368</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1122007250610258</v>
+        <v>0.1122007250609828</v>
       </c>
       <c r="N32" t="n">
-        <v>1.164890043486927</v>
+        <v>1.164890043486037</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003010000000074342</v>
+        <v>0.0001916000000008466</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.124427164275475</v>
       </c>
       <c r="F33" t="n">
-        <v>26.03681662120516</v>
+        <v>26.03681662120571</v>
       </c>
       <c r="G33" t="n">
-        <v>51.59355432681603</v>
+        <v>51.59355432681624</v>
       </c>
       <c r="H33" t="n">
-        <v>11.70694676263777</v>
+        <v>11.70694676263806</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>20.83710639307298</v>
+        <v>20.83710639307303</v>
       </c>
       <c r="L33" t="n">
-        <v>34.39747350228225</v>
+        <v>34.39747350228303</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1057489271057939</v>
+        <v>0.1057489271057896</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8291504893773234</v>
+        <v>0.8291504893772399</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0002044999999952779</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1046683352968264</v>
       </c>
       <c r="F34" t="n">
-        <v>27.81716331949571</v>
+        <v>27.81716331949517</v>
       </c>
       <c r="G34" t="n">
-        <v>160.3959632789412</v>
+        <v>160.3959632789438</v>
       </c>
       <c r="H34" t="n">
-        <v>7.511584888368429</v>
+        <v>7.511584888368708</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>14.25631720891276</v>
+        <v>14.25631720891271</v>
       </c>
       <c r="L34" t="n">
-        <v>17.24029009368579</v>
+        <v>17.24029009368477</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1027202651788934</v>
+        <v>0.1027202651789009</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4641414988138463</v>
+        <v>0.4641414988141033</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0004714000000092256</v>
+        <v>0.000237499999997226</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.09565605153243364</v>
       </c>
       <c r="F35" t="n">
-        <v>27.31301362852086</v>
+        <v>27.31301362851929</v>
       </c>
       <c r="G35" t="n">
-        <v>48.97742084772343</v>
+        <v>48.97742084772231</v>
       </c>
       <c r="H35" t="n">
-        <v>6.374434653085851</v>
+        <v>6.374434653085393</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>13.23099639815445</v>
+        <v>13.2309963981543</v>
       </c>
       <c r="L35" t="n">
-        <v>30.52764365169064</v>
+        <v>30.52764365168875</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09564284945858298</v>
+        <v>0.09564284945859428</v>
       </c>
       <c r="N35" t="n">
-        <v>0.999034394866379</v>
+        <v>0.9990343948666113</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0001936000000029026</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9268494698117</v>
       </c>
       <c r="F36" t="n">
-        <v>27.41436724481684</v>
+        <v>27.41436724481689</v>
       </c>
       <c r="G36" t="n">
-        <v>6.305183024059612</v>
+        <v>6.305183024059663</v>
       </c>
       <c r="H36" t="n">
-        <v>10.61641967361491</v>
+        <v>10.61641967361462</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>3.870727011617689</v>
+        <v>3.870727011617676</v>
       </c>
       <c r="L36" t="n">
-        <v>37.54627074262904</v>
+        <v>37.54627074262873</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09609702130124192</v>
+        <v>0.09609702130124283</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5916086222011215</v>
+        <v>0.5916086222011918</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003086999999908357</v>
+        <v>0.0001908999999997718</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.5669210130263596</v>
       </c>
       <c r="F37" t="n">
-        <v>26.04084531218727</v>
+        <v>26.04084531218719</v>
       </c>
       <c r="G37" t="n">
-        <v>116.3106088093838</v>
+        <v>116.310608809388</v>
       </c>
       <c r="H37" t="n">
-        <v>4.775627250656114</v>
+        <v>4.775627250656156</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>17.45197879029679</v>
+        <v>17.45197879029682</v>
       </c>
       <c r="L37" t="n">
-        <v>21.89078807598266</v>
+        <v>21.89078807598217</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1416054612334282</v>
+        <v>0.1416054612334315</v>
       </c>
       <c r="N37" t="n">
-        <v>2.101473793967349</v>
+        <v>2.101473793967465</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0002023999999991588</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.7970760202737</v>
       </c>
       <c r="F38" t="n">
-        <v>27.95639607628656</v>
+        <v>27.9563960762809</v>
       </c>
       <c r="G38" t="n">
-        <v>129.0089659960724</v>
+        <v>129.0089659960752</v>
       </c>
       <c r="H38" t="n">
-        <v>9.324555585891931</v>
+        <v>9.32455558588954</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>28.09181186451114</v>
+        <v>28.09181186451049</v>
       </c>
       <c r="L38" t="n">
-        <v>20.740035068182</v>
+        <v>20.74003506817703</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1158974236161458</v>
+        <v>0.1158974236161985</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4187805715580238</v>
+        <v>0.4187805715590804</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.000325399999994147</v>
+        <v>0.0002545999999981063</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01633908370124642</v>
       </c>
       <c r="F39" t="n">
-        <v>28.7560415602904</v>
+        <v>28.75604156029021</v>
       </c>
       <c r="G39" t="n">
-        <v>171.3589068995163</v>
+        <v>171.3589068995162</v>
       </c>
       <c r="H39" t="n">
-        <v>8.436870164809003</v>
+        <v>8.436870164808811</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>9.501625082990348</v>
+        <v>9.50162508299031</v>
       </c>
       <c r="L39" t="n">
-        <v>16.35472705259483</v>
+        <v>16.35472705259487</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09485942250178983</v>
+        <v>0.09485942250179091</v>
       </c>
       <c r="N39" t="n">
-        <v>0.235478502227548</v>
+        <v>0.2354785022276106</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002928000000110842</v>
+        <v>0.000253099999994788</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.697388305565</v>
       </c>
       <c r="F40" t="n">
-        <v>27.00981562411777</v>
+        <v>27.00981562411226</v>
       </c>
       <c r="G40" t="n">
-        <v>66.76477197405569</v>
+        <v>66.764771974056</v>
       </c>
       <c r="H40" t="n">
-        <v>12.31123086502744</v>
+        <v>12.31123086502398</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>25.78999425963047</v>
+        <v>25.78999425963007</v>
       </c>
       <c r="L40" t="n">
-        <v>33.5645176806582</v>
+        <v>33.56451768065006</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1165315688819119</v>
+        <v>0.1165315688819638</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4480937266908551</v>
+        <v>0.4480937266919659</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0001972000000023399</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.5785481301934</v>
       </c>
       <c r="F41" t="n">
-        <v>27.50644890495328</v>
+        <v>27.50644890495973</v>
       </c>
       <c r="G41" t="n">
-        <v>93.90714238717406</v>
+        <v>93.9071423871728</v>
       </c>
       <c r="H41" t="n">
-        <v>11.8481853092017</v>
+        <v>11.84818530920539</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>32.35295651768345</v>
+        <v>32.35295651768396</v>
       </c>
       <c r="L41" t="n">
-        <v>28.31612508737001</v>
+        <v>28.31612508737782</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1264113122609779</v>
+        <v>0.1264113122609135</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4068144441734293</v>
+        <v>0.4068144441721637</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000321299999995972</v>
+        <v>0.0001980000000045834</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1822643091633721</v>
       </c>
       <c r="F42" t="n">
-        <v>28.08996060916649</v>
+        <v>28.08996060916621</v>
       </c>
       <c r="G42" t="n">
-        <v>102.0120033763572</v>
+        <v>102.0120033763653</v>
       </c>
       <c r="H42" t="n">
-        <v>2.780359211082021</v>
+        <v>2.780359211081981</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>10.34490417494836</v>
+        <v>10.34490417494833</v>
       </c>
       <c r="L42" t="n">
-        <v>25.18853897363168</v>
+        <v>25.18853897363094</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09953298102827847</v>
+        <v>0.09953298102828262</v>
       </c>
       <c r="N42" t="n">
-        <v>1.620374078859695</v>
+        <v>1.620374078859974</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.00030569999999841</v>
+        <v>0.0001967999999976655</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.08121369692019792</v>
       </c>
       <c r="F43" t="n">
-        <v>27.99062936318928</v>
+        <v>27.99062936318877</v>
       </c>
       <c r="G43" t="n">
-        <v>68.28475288655129</v>
+        <v>68.28475288654315</v>
       </c>
       <c r="H43" t="n">
-        <v>2.061927983978249</v>
+        <v>2.061927983978323</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2679,16 +2679,16 @@
         <v>30.6778780234648</v>
       </c>
       <c r="K43" t="n">
-        <v>7.602256030596999</v>
+        <v>7.602256030596949</v>
       </c>
       <c r="L43" t="n">
-        <v>26.52284696374135</v>
+        <v>26.52284696374119</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09846841639082204</v>
+        <v>0.09846841639082481</v>
       </c>
       <c r="N43" t="n">
-        <v>1.916813934906992</v>
+        <v>1.916813934906759</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003032999999987851</v>
+        <v>0.0002885000000034665</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.8509857540967</v>
       </c>
       <c r="F44" t="n">
-        <v>26.99476526695669</v>
+        <v>26.99476526695798</v>
       </c>
       <c r="G44" t="n">
-        <v>66.43600693748955</v>
+        <v>66.43600693748877</v>
       </c>
       <c r="H44" t="n">
-        <v>12.88285110841231</v>
+        <v>12.88285110841333</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>26.55197730190304</v>
+        <v>26.5519773019031</v>
       </c>
       <c r="L44" t="n">
-        <v>34.16162537714084</v>
+        <v>34.16162537714305</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1014772341440362</v>
+        <v>0.1014772341440237</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5060667918895094</v>
+        <v>0.5060667918892428</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003873999999939315</v>
+        <v>0.0002504999999999313</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9227800223966</v>
       </c>
       <c r="F45" t="n">
-        <v>26.89397858878048</v>
+        <v>26.89397858878056</v>
       </c>
       <c r="G45" t="n">
-        <v>19.07535519236771</v>
+        <v>19.07535519236785</v>
       </c>
       <c r="H45" t="n">
-        <v>9.385215745742276</v>
+        <v>9.385215745742213</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2783,16 +2783,16 @@
         <v>39.34753971841504</v>
       </c>
       <c r="K45" t="n">
-        <v>7.85024302245772</v>
+        <v>7.850243022457733</v>
       </c>
       <c r="L45" t="n">
         <v>35.25179913216179</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09876923622158885</v>
+        <v>0.09876923622158873</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5011343051115926</v>
+        <v>0.5011343051116045</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003059000000007472</v>
+        <v>0.0002308999999982575</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.2251844151767598</v>
       </c>
       <c r="F46" t="n">
-        <v>28.99065719628367</v>
+        <v>28.99065719628397</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5411298398069</v>
+        <v>165.5411298398061</v>
       </c>
       <c r="H46" t="n">
-        <v>5.877130825998481</v>
+        <v>5.877130825998431</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>8.856109701203627</v>
+        <v>8.856109701203676</v>
       </c>
       <c r="L46" t="n">
-        <v>19.78071247019918</v>
+        <v>19.78071247019957</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1054485618870954</v>
+        <v>0.1054485618870916</v>
       </c>
       <c r="N46" t="n">
-        <v>1.659367189896479</v>
+        <v>1.659367189896387</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002910999999983233</v>
+        <v>0.0002271999999976515</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9920875681452</v>
       </c>
       <c r="F47" t="n">
-        <v>28.75086347122645</v>
+        <v>28.75086347122618</v>
       </c>
       <c r="G47" t="n">
-        <v>178.9751618291162</v>
+        <v>178.9751618291164</v>
       </c>
       <c r="H47" t="n">
-        <v>9.610280484031749</v>
+        <v>9.610280484031719</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2887,16 +2887,16 @@
         <v>15.9542760494317</v>
       </c>
       <c r="K47" t="n">
-        <v>5.369916871693332</v>
+        <v>5.369916871693255</v>
       </c>
       <c r="L47" t="n">
-        <v>14.66838494126853</v>
+        <v>14.66838494126829</v>
       </c>
       <c r="M47" t="n">
-        <v>0.09138167892836069</v>
+        <v>0.09138167892836406</v>
       </c>
       <c r="N47" t="n">
-        <v>0.229678015506238</v>
+        <v>0.2296780155062818</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003538999999932457</v>
+        <v>0.0002595999999996934</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8245372480388</v>
       </c>
       <c r="F48" t="n">
-        <v>28.54206488809652</v>
+        <v>28.5420648881041</v>
       </c>
       <c r="G48" t="n">
-        <v>139.6464095641598</v>
+        <v>139.6464095641556</v>
       </c>
       <c r="H48" t="n">
-        <v>9.914999206831128</v>
+        <v>9.914999206834283</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>27.52949436239936</v>
+        <v>27.52949436240029</v>
       </c>
       <c r="L48" t="n">
-        <v>19.01111438904908</v>
+        <v>19.01111438905517</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1049122619433973</v>
+        <v>0.1049122619433346</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3063700356620259</v>
+        <v>0.3063700356606459</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003250999999977466</v>
+        <v>0.0002567000000013309</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.2544028427298431</v>
       </c>
       <c r="F49" t="n">
-        <v>27.41214713210407</v>
+        <v>27.41214713210306</v>
       </c>
       <c r="G49" t="n">
-        <v>22.57629751781561</v>
+        <v>22.57629751781607</v>
       </c>
       <c r="H49" t="n">
-        <v>9.658755010528029</v>
+        <v>9.658755010526946</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>9.188242333285766</v>
+        <v>9.188242333285677</v>
       </c>
       <c r="L49" t="n">
-        <v>35.95922056313261</v>
+        <v>35.95922056313034</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1056798494430958</v>
+        <v>0.1056798494431064</v>
       </c>
       <c r="N49" t="n">
-        <v>1.301366613911634</v>
+        <v>1.301366613911936</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002993000000088841</v>
+        <v>0.000201699999998084</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.2980893959785312</v>
       </c>
       <c r="F50" t="n">
-        <v>29.54035759307914</v>
+        <v>29.54035759307876</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2273766317777912</v>
+        <v>0.2273766317778548</v>
       </c>
       <c r="H50" t="n">
-        <v>6.02238203010896</v>
+        <v>6.022382030109511</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3043,16 +3043,16 @@
         <v>43.84652687772623</v>
       </c>
       <c r="K50" t="n">
-        <v>2.268507143385497</v>
+        <v>2.268507143385485</v>
       </c>
       <c r="L50" t="n">
-        <v>34.1771814167585</v>
+        <v>34.17718141675878</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1134406207777289</v>
+        <v>0.1134406207777293</v>
       </c>
       <c r="N50" t="n">
-        <v>1.95192807124502</v>
+        <v>1.951928071244907</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.000316299999994385</v>
+        <v>0.000201300000000515</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.312947723461975</v>
       </c>
       <c r="F51" t="n">
-        <v>27.27953439651753</v>
+        <v>27.27953439651766</v>
       </c>
       <c r="G51" t="n">
-        <v>77.66559091283509</v>
+        <v>77.66559091283588</v>
       </c>
       <c r="H51" t="n">
-        <v>3.555088957558222</v>
+        <v>3.555088957558232</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3095,16 +3095,16 @@
         <v>32.33427654125745</v>
       </c>
       <c r="K51" t="n">
-        <v>12.1095959678413</v>
+        <v>12.10959596784131</v>
       </c>
       <c r="L51" t="n">
-        <v>26.15610094479787</v>
+        <v>26.15610094479795</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0996522617792762</v>
+        <v>0.09965226177927525</v>
       </c>
       <c r="N51" t="n">
-        <v>2.002172334107763</v>
+        <v>2.002172334107774</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003191999999927475</v>
+        <v>0.0002074999999948091</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.4681056326050967</v>
       </c>
       <c r="F52" t="n">
-        <v>26.67181211067137</v>
+        <v>26.67181211067478</v>
       </c>
       <c r="G52" t="n">
-        <v>120.999257686391</v>
+        <v>120.9992576863934</v>
       </c>
       <c r="H52" t="n">
-        <v>4.553881723833188</v>
+        <v>4.553881723834198</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>15.95516899030175</v>
+        <v>15.95516899030227</v>
       </c>
       <c r="L52" t="n">
-        <v>22.09112809838646</v>
+        <v>22.09112809838922</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1210872360320759</v>
+        <v>0.1210872360320403</v>
       </c>
       <c r="N52" t="n">
-        <v>1.788688606337886</v>
+        <v>1.788688606337217</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.0002276000000023259</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.08715095200459153</v>
       </c>
       <c r="F53" t="n">
-        <v>27.87338075773587</v>
+        <v>27.87338075773656</v>
       </c>
       <c r="G53" t="n">
-        <v>133.1141996528123</v>
+        <v>133.1141996528079</v>
       </c>
       <c r="H53" t="n">
-        <v>3.359106707441058</v>
+        <v>3.359106707441054</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>10.46281380887555</v>
+        <v>10.46281380887565</v>
       </c>
       <c r="L53" t="n">
-        <v>22.8824971243069</v>
+        <v>22.88249712430785</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0960227257726254</v>
+        <v>0.09602272577261899</v>
       </c>
       <c r="N53" t="n">
-        <v>0.6658145961020483</v>
+        <v>0.6658145961018503</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003122000000104208</v>
+        <v>0.0002433000000010566</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8441572478157</v>
       </c>
       <c r="F54" t="n">
-        <v>28.47090075427188</v>
+        <v>28.47090075427195</v>
       </c>
       <c r="G54" t="n">
-        <v>132.9461302560417</v>
+        <v>132.9461302560384</v>
       </c>
       <c r="H54" t="n">
-        <v>2.402030135693766</v>
+        <v>2.402030135693683</v>
       </c>
       <c r="I54" t="n">
         <v>7.752335685709725</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>7.635943559161153</v>
+        <v>7.635943559161166</v>
       </c>
       <c r="L54" t="n">
-        <v>24.10434740004797</v>
+        <v>24.10434740004823</v>
       </c>
       <c r="M54" t="n">
-        <v>0.09055320664614808</v>
+        <v>0.09055320664614692</v>
       </c>
       <c r="N54" t="n">
-        <v>1.105546072178177</v>
+        <v>1.105546072178304</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0004576000000042768</v>
+        <v>0.0002341000000001259</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9382405399448</v>
       </c>
       <c r="F55" t="n">
-        <v>28.03091030804539</v>
+        <v>28.03091030804194</v>
       </c>
       <c r="G55" t="n">
-        <v>153.0823899606328</v>
+        <v>153.082389960635</v>
       </c>
       <c r="H55" t="n">
-        <v>8.997048648735268</v>
+        <v>8.997048648734012</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>20.89722762275226</v>
+        <v>20.89722762275173</v>
       </c>
       <c r="L55" t="n">
-        <v>16.89939104337116</v>
+        <v>16.89939104336865</v>
       </c>
       <c r="M55" t="n">
-        <v>0.1104942961790548</v>
+        <v>0.1104942961790888</v>
       </c>
       <c r="N55" t="n">
-        <v>0.3885983065795582</v>
+        <v>0.3885983065803018</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003194000000092956</v>
+        <v>0.0002248999999991952</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.5556632233838706</v>
       </c>
       <c r="F56" t="n">
-        <v>25.9950778131042</v>
+        <v>25.99507781310224</v>
       </c>
       <c r="G56" t="n">
-        <v>102.9628004974064</v>
+        <v>102.9628004974109</v>
       </c>
       <c r="H56" t="n">
-        <v>4.847121396138848</v>
+        <v>4.847121396138249</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>17.80962624234826</v>
+        <v>17.80962624234803</v>
       </c>
       <c r="L56" t="n">
-        <v>23.18374569937981</v>
+        <v>23.18374569937742</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1223308437764531</v>
+        <v>0.1223308437764761</v>
       </c>
       <c r="N56" t="n">
-        <v>2.060225384274661</v>
+        <v>2.060225384275162</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003021999999930358</v>
+        <v>0.000241199999997832</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.4871193343902016</v>
       </c>
       <c r="F57" t="n">
-        <v>28.00370316368295</v>
+        <v>28.00370316368301</v>
       </c>
       <c r="G57" t="n">
-        <v>21.56377110164417</v>
+        <v>21.56377110164433</v>
       </c>
       <c r="H57" t="n">
-        <v>6.966801875576065</v>
+        <v>6.966801875576047</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>7.695941942833348</v>
+        <v>7.695941942833361</v>
       </c>
       <c r="L57" t="n">
-        <v>33.4627649406409</v>
+        <v>33.46276494064094</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1224798165594729</v>
+        <v>0.1224798165594725</v>
       </c>
       <c r="N57" t="n">
-        <v>1.934766463367251</v>
+        <v>1.93476646336725</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002952000000107091</v>
+        <v>0.0003163999999955536</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.3112929526507688</v>
       </c>
       <c r="F58" t="n">
-        <v>30.02824325134536</v>
+        <v>30.02824325134508</v>
       </c>
       <c r="G58" t="n">
         <v>181.2231024211955</v>
       </c>
       <c r="H58" t="n">
-        <v>10.56685468878156</v>
+        <v>10.56685468878124</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>4.126227931827221</v>
+        <v>4.126227931827196</v>
       </c>
       <c r="L58" t="n">
-        <v>14.77239183002061</v>
+        <v>14.77239183002071</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1281969848661955</v>
+        <v>0.1281969848661978</v>
       </c>
       <c r="N58" t="n">
-        <v>1.912865141187238</v>
+        <v>1.912865141187116</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.000323800000003871</v>
+        <v>0.0002130000000022392</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.03931564720407376</v>
       </c>
       <c r="F59" t="n">
-        <v>27.42383292047242</v>
+        <v>27.42383292047208</v>
       </c>
       <c r="G59" t="n">
-        <v>14.16474878125712</v>
+        <v>14.16474878125681</v>
       </c>
       <c r="H59" t="n">
-        <v>4.653446957309201</v>
+        <v>4.653446957309098</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3511,16 +3511,16 @@
         <v>34.17956701829482</v>
       </c>
       <c r="K59" t="n">
-        <v>4.833835234839833</v>
+        <v>4.833835234839795</v>
       </c>
       <c r="L59" t="n">
-        <v>30.32969528250753</v>
+        <v>30.32969528250707</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1087630392477121</v>
+        <v>0.108763039247715</v>
       </c>
       <c r="N59" t="n">
-        <v>0.7784496044115403</v>
+        <v>0.7784496044116219</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003462000000098442</v>
+        <v>0.0002277000000034946</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.228055843852356</v>
       </c>
       <c r="F60" t="n">
-        <v>26.40850483166047</v>
+        <v>26.40850483165433</v>
       </c>
       <c r="G60" t="n">
-        <v>71.90660651779439</v>
+        <v>71.90660651779908</v>
       </c>
       <c r="H60" t="n">
-        <v>6.270976039650106</v>
+        <v>6.270976039647507</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3563,16 +3563,16 @@
         <v>33.19847585386613</v>
       </c>
       <c r="K60" t="n">
-        <v>17.87854022317531</v>
+        <v>17.87854022317469</v>
       </c>
       <c r="L60" t="n">
-        <v>27.45480941582807</v>
+        <v>27.45480941581989</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09836954260737032</v>
+        <v>0.09836954260742221</v>
       </c>
       <c r="N60" t="n">
-        <v>1.162778222640838</v>
+        <v>1.162778222642294</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0002008000000017773</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.5007850564184159</v>
       </c>
       <c r="F61" t="n">
-        <v>29.2051521708137</v>
+        <v>29.20515217081347</v>
       </c>
       <c r="G61" t="n">
-        <v>179.3892233314412</v>
+        <v>179.3892233314411</v>
       </c>
       <c r="H61" t="n">
-        <v>9.626729943868455</v>
+        <v>9.626729943868156</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>5.8811929297696</v>
+        <v>5.881192929769587</v>
       </c>
       <c r="L61" t="n">
-        <v>15.11581661858272</v>
+        <v>15.11581661858284</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1506390950142807</v>
+        <v>0.1506390950142822</v>
       </c>
       <c r="N61" t="n">
-        <v>3.469011127075568</v>
+        <v>3.469011127075412</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003210999999936348</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.2765312979639231</v>
       </c>
       <c r="F62" t="n">
-        <v>27.87858845473126</v>
+        <v>27.8785884547305</v>
       </c>
       <c r="G62" t="n">
-        <v>86.46379469998641</v>
+        <v>86.46379470000112</v>
       </c>
       <c r="H62" t="n">
-        <v>3.104577149358744</v>
+        <v>3.104577149358379</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>11.14790049435712</v>
+        <v>11.14790049435705</v>
       </c>
       <c r="L62" t="n">
-        <v>25.9819303327281</v>
+        <v>25.98193033272631</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1173314111465652</v>
+        <v>0.1173314111465766</v>
       </c>
       <c r="N62" t="n">
-        <v>2.193734983854197</v>
+        <v>2.193734983854854</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002972999999997228</v>
+        <v>0.0002572000000000685</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.129448665467937</v>
       </c>
       <c r="F63" t="n">
-        <v>28.38316465188242</v>
+        <v>28.38316465188187</v>
       </c>
       <c r="G63" t="n">
-        <v>157.683859474639</v>
+        <v>157.6838594746374</v>
       </c>
       <c r="H63" t="n">
-        <v>5.669157983577018</v>
+        <v>5.669157983576573</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3719,16 +3719,16 @@
         <v>22.53166860081129</v>
       </c>
       <c r="K63" t="n">
-        <v>11.09231304467834</v>
+        <v>11.09231304467825</v>
       </c>
       <c r="L63" t="n">
-        <v>19.84398075023365</v>
+        <v>19.84398075023367</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1035119658854257</v>
+        <v>0.103511965885429</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7271250169782306</v>
+        <v>0.7271250169779956</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.000309100000009721</v>
+        <v>0.000202999999999065</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.003697627891110895</v>
       </c>
       <c r="F64" t="n">
-        <v>28.56887202910359</v>
+        <v>28.56887202910353</v>
       </c>
       <c r="G64" t="n">
-        <v>5.463354448296329</v>
+        <v>5.463354448296291</v>
       </c>
       <c r="H64" t="n">
-        <v>6.804476819320795</v>
+        <v>6.80447681932077</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3774,13 +3774,13 @@
         <v>3.274244666040389</v>
       </c>
       <c r="L64" t="n">
-        <v>34.13651353877744</v>
+        <v>34.13651353877734</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0880293169315509</v>
+        <v>0.0880293169315513</v>
       </c>
       <c r="N64" t="n">
-        <v>0.815181667647078</v>
+        <v>0.8151816676470905</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0004520000000098889</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.6416935960554256</v>
       </c>
       <c r="F65" t="n">
-        <v>25.50098980979192</v>
+        <v>25.50098980979238</v>
       </c>
       <c r="G65" t="n">
-        <v>125.7686929414126</v>
+        <v>125.768692941407</v>
       </c>
       <c r="H65" t="n">
-        <v>6.005887318179784</v>
+        <v>6.005887318179762</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>21.36512990696135</v>
+        <v>21.36512990696131</v>
       </c>
       <c r="L65" t="n">
-        <v>20.04814959745235</v>
+        <v>20.04814959745347</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1415779668703684</v>
+        <v>0.1415779668703587</v>
       </c>
       <c r="N65" t="n">
-        <v>1.797896090587254</v>
+        <v>1.797896090587061</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003332000000000335</v>
+        <v>0.0001892999999952849</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.6699031182305</v>
       </c>
       <c r="F66" t="n">
-        <v>27.19941530309715</v>
+        <v>27.19941530309691</v>
       </c>
       <c r="G66" t="n">
-        <v>62.56764780313602</v>
+        <v>62.56764780313794</v>
       </c>
       <c r="H66" t="n">
-        <v>9.626543786928231</v>
+        <v>9.626543786927774</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>20.64410315507985</v>
+        <v>20.64410315507988</v>
       </c>
       <c r="L66" t="n">
-        <v>31.95653065850483</v>
+        <v>31.95653065850393</v>
       </c>
       <c r="M66" t="n">
-        <v>0.1292169518326144</v>
+        <v>0.1292169518326203</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3405382096795704</v>
+        <v>0.3405382096796752</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0002087999999957901</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.2500994469398075</v>
       </c>
       <c r="F67" t="n">
-        <v>28.54819136254369</v>
+        <v>28.54819136254415</v>
       </c>
       <c r="G67" t="n">
-        <v>111.3921645483601</v>
+        <v>111.3921645483708</v>
       </c>
       <c r="H67" t="n">
-        <v>1.476891236216642</v>
+        <v>1.476891236216778</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>6.643934588148213</v>
+        <v>6.643934588148263</v>
       </c>
       <c r="L67" t="n">
-        <v>25.45607695633832</v>
+        <v>25.45607695633841</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1031861334122192</v>
+        <v>0.1031861334122169</v>
       </c>
       <c r="N67" t="n">
-        <v>3.580049608079316</v>
+        <v>3.580049608079472</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003158999999897105</v>
+        <v>0.0002816999999950554</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.5753156907807</v>
       </c>
       <c r="F68" t="n">
-        <v>25.91049428268935</v>
+        <v>25.91049428268941</v>
       </c>
       <c r="G68" t="n">
-        <v>17.14199592982449</v>
+        <v>17.14199592982578</v>
       </c>
       <c r="H68" t="n">
-        <v>7.382713656991265</v>
+        <v>7.382713656990383</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>6.448512791221678</v>
+        <v>6.448512791221664</v>
       </c>
       <c r="L68" t="n">
-        <v>31.9613373702887</v>
+        <v>31.96133737028768</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1155188164687667</v>
+        <v>0.1155188164687707</v>
       </c>
       <c r="N68" t="n">
-        <v>1.843977834970684</v>
+        <v>1.843977834970233</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003336000000047079</v>
+        <v>0.0002132999999986396</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.6614433543339</v>
       </c>
       <c r="F69" t="n">
-        <v>27.52641859195864</v>
+        <v>27.52641859195541</v>
       </c>
       <c r="G69" t="n">
-        <v>94.66916092934368</v>
+        <v>94.66916092934267</v>
       </c>
       <c r="H69" t="n">
-        <v>12.4207344509734</v>
+        <v>12.42073445097163</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>33.7998978859433</v>
+        <v>33.79989788594296</v>
       </c>
       <c r="L69" t="n">
-        <v>28.51588697107209</v>
+        <v>28.51588697106861</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1175713209582248</v>
+        <v>0.1175713209582524</v>
       </c>
       <c r="N69" t="n">
-        <v>0.4226541272117021</v>
+        <v>0.4226541272123362</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.0001991000000032273</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.2833429093115037</v>
       </c>
       <c r="F70" t="n">
-        <v>28.32227231973223</v>
+        <v>28.32227231973211</v>
       </c>
       <c r="G70" t="n">
-        <v>131.6754138059744</v>
+        <v>131.6754138059599</v>
       </c>
       <c r="H70" t="n">
-        <v>2.110899976116317</v>
+        <v>2.11089997611594</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4086,13 +4086,13 @@
         <v>7.593923366065408</v>
       </c>
       <c r="L70" t="n">
-        <v>24.23383492470788</v>
+        <v>24.23383492470855</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1106528817591862</v>
+        <v>0.110652881759184</v>
       </c>
       <c r="N70" t="n">
-        <v>3.567545828755424</v>
+        <v>3.567545828755292</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003021000000131835</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>359.7253478704356</v>
       </c>
       <c r="F71" t="n">
-        <v>26.21218769308891</v>
+        <v>26.21218769308666</v>
       </c>
       <c r="G71" t="n">
-        <v>49.70778304701221</v>
+        <v>49.70778304701143</v>
       </c>
       <c r="H71" t="n">
-        <v>11.81703848851101</v>
+        <v>11.81703848850979</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>19.8999461082959</v>
+        <v>19.89994610829571</v>
       </c>
       <c r="L71" t="n">
-        <v>34.84656504167562</v>
+        <v>34.84656504167234</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1171910401052214</v>
+        <v>0.1171910401052413</v>
       </c>
       <c r="N71" t="n">
-        <v>0.5050669485167943</v>
+        <v>0.5050669485172374</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003302000000076077</v>
+        <v>0.0002416000000025065</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.7447007775094</v>
       </c>
       <c r="F72" t="n">
-        <v>29.02782546119315</v>
+        <v>29.02782546120075</v>
       </c>
       <c r="G72" t="n">
-        <v>164.9808738273887</v>
+        <v>164.9808738273846</v>
       </c>
       <c r="H72" t="n">
-        <v>12.42983519382346</v>
+        <v>12.42983519382675</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>22.22987551487605</v>
+        <v>22.22987551487745</v>
       </c>
       <c r="L72" t="n">
-        <v>12.96883453826691</v>
+        <v>12.96883453827142</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1072211641875377</v>
+        <v>0.1072211641874634</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3589958217363871</v>
+        <v>0.358995821736125</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.0002325999999968076</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.1291809449189355</v>
       </c>
       <c r="F73" t="n">
-        <v>27.81446246344984</v>
+        <v>27.81446246345072</v>
       </c>
       <c r="G73" t="n">
-        <v>40.81271462606156</v>
+        <v>40.81271462605841</v>
       </c>
       <c r="H73" t="n">
-        <v>4.985112876418289</v>
+        <v>4.985112876419059</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>9.815939505570041</v>
+        <v>9.815939505570132</v>
       </c>
       <c r="L73" t="n">
-        <v>30.16724179396779</v>
+        <v>30.16724179396961</v>
       </c>
       <c r="M73" t="n">
-        <v>0.09858186138609652</v>
+        <v>0.0985818613860872</v>
       </c>
       <c r="N73" t="n">
-        <v>1.369109915554505</v>
+        <v>1.369109915554068</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003104000000035967</v>
+        <v>0.0001985999999973842</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9044363502803</v>
       </c>
       <c r="F74" t="n">
-        <v>26.98147035235931</v>
+        <v>26.9814703523598</v>
       </c>
       <c r="G74" t="n">
-        <v>17.80326691391528</v>
+        <v>17.8032669139151</v>
       </c>
       <c r="H74" t="n">
-        <v>10.34414282169891</v>
+        <v>10.34414282169955</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>7.744309310074901</v>
+        <v>7.744309310074953</v>
       </c>
       <c r="L74" t="n">
-        <v>36.51666694597576</v>
+        <v>36.51666694597701</v>
       </c>
       <c r="M74" t="n">
-        <v>0.102488027200782</v>
+        <v>0.1024880272007764</v>
       </c>
       <c r="N74" t="n">
-        <v>0.4431596455285106</v>
+        <v>0.4431596455283043</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002917999999993981</v>
+        <v>0.0001961999999977593</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.826956084607</v>
       </c>
       <c r="F75" t="n">
-        <v>28.60706183876259</v>
+        <v>28.60706183876733</v>
       </c>
       <c r="G75" t="n">
-        <v>113.0866530374591</v>
+        <v>113.0866530374571</v>
       </c>
       <c r="H75" t="n">
-        <v>8.978433547183382</v>
+        <v>8.978433547185361</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>26.80129117249073</v>
+        <v>26.80129117249118</v>
       </c>
       <c r="L75" t="n">
-        <v>24.38537296748273</v>
+        <v>24.38537296748747</v>
       </c>
       <c r="M75" t="n">
-        <v>0.09220721490258886</v>
+        <v>0.09220721490255569</v>
       </c>
       <c r="N75" t="n">
-        <v>0.2756541822654691</v>
+        <v>0.2756541822645671</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.00032039999999256</v>
+        <v>0.0002040000000036457</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8174963518577</v>
       </c>
       <c r="F76" t="n">
-        <v>26.90236903828767</v>
+        <v>26.9023690382886</v>
       </c>
       <c r="G76" t="n">
-        <v>34.7753514037683</v>
+        <v>34.77535140376757</v>
       </c>
       <c r="H76" t="n">
-        <v>11.41714123975552</v>
+        <v>11.41714123975653</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>14.05772950077041</v>
+        <v>14.05772950077048</v>
       </c>
       <c r="L76" t="n">
-        <v>36.63665828564002</v>
+        <v>36.63665828564211</v>
       </c>
       <c r="M76" t="n">
-        <v>0.09551463972026474</v>
+        <v>0.09551463972025483</v>
       </c>
       <c r="N76" t="n">
-        <v>0.456642888511847</v>
+        <v>0.4566428885115624</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003101000000071963</v>
+        <v>0.0001998000000043021</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.2128506401928187</v>
       </c>
       <c r="F77" t="n">
-        <v>28.24595164046175</v>
+        <v>28.24595164046251</v>
       </c>
       <c r="G77" t="n">
-        <v>134.4066440976483</v>
+        <v>134.4066440976485</v>
       </c>
       <c r="H77" t="n">
-        <v>3.934015563968157</v>
+        <v>3.934015563968357</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>11.76003670107402</v>
+        <v>11.76003670107413</v>
       </c>
       <c r="L77" t="n">
-        <v>22.80469483782014</v>
+        <v>22.80469483782075</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1030332132633477</v>
+        <v>0.1030332132633412</v>
       </c>
       <c r="N77" t="n">
-        <v>1.213286157427661</v>
+        <v>1.213286157427731</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002887999999927615</v>
+        <v>0.0002425999999999817</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.7179096067844</v>
       </c>
       <c r="F78" t="n">
-        <v>26.87077271244468</v>
+        <v>26.87077271245367</v>
       </c>
       <c r="G78" t="n">
-        <v>53.20408261868991</v>
+        <v>53.20408261869019</v>
       </c>
       <c r="H78" t="n">
-        <v>12.05205471125054</v>
+        <v>12.0520547112562</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4499,16 +4499,16 @@
         <v>38.60175053192231</v>
       </c>
       <c r="K78" t="n">
-        <v>20.97545030548335</v>
+        <v>20.97545030548402</v>
       </c>
       <c r="L78" t="n">
-        <v>35.25267517470732</v>
+        <v>35.2526751747214</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1057462822168985</v>
+        <v>0.1057462822168179</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4067220592913936</v>
+        <v>0.4067220592895135</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003439000000042824</v>
+        <v>0.0002106999999966774</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9326665443774</v>
       </c>
       <c r="F79" t="n">
-        <v>28.53111984772989</v>
+        <v>28.53111984772762</v>
       </c>
       <c r="G79" t="n">
-        <v>165.3908762424704</v>
+        <v>165.3908762424714</v>
       </c>
       <c r="H79" t="n">
-        <v>9.971903750150624</v>
+        <v>9.971903750149673</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>16.1642511070402</v>
+        <v>16.16425110703972</v>
       </c>
       <c r="L79" t="n">
-        <v>14.92537105498392</v>
+        <v>14.92537105498261</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09738884932494569</v>
+        <v>0.09738884932496683</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3026082607114328</v>
+        <v>0.3026082607118912</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003108999999881235</v>
+        <v>0.0001941000000016402</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9633861588326</v>
       </c>
       <c r="F80" t="n">
-        <v>27.96579123470654</v>
+        <v>27.96579123470674</v>
       </c>
       <c r="G80" t="n">
-        <v>8.588445507781568</v>
+        <v>8.588445507781735</v>
       </c>
       <c r="H80" t="n">
-        <v>8.491436803986955</v>
+        <v>8.491436803986902</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>4.317151635419311</v>
+        <v>4.317151635419323</v>
       </c>
       <c r="L80" t="n">
-        <v>35.52568393230852</v>
+        <v>35.52568393230865</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1015703564392718</v>
+        <v>0.1015703564392709</v>
       </c>
       <c r="N80" t="n">
-        <v>0.8594753899916305</v>
+        <v>0.8594753899916329</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003240000000062082</v>
+        <v>0.0001935999999957971</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.9949076462310189</v>
       </c>
       <c r="F81" t="n">
-        <v>23.51791878488804</v>
+        <v>23.51791878488977</v>
       </c>
       <c r="G81" t="n">
-        <v>124.4665609478439</v>
+        <v>124.4665609478388</v>
       </c>
       <c r="H81" t="n">
-        <v>5.454865003339346</v>
+        <v>5.454865003339838</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>22.08280129516024</v>
+        <v>22.08280129516048</v>
       </c>
       <c r="L81" t="n">
-        <v>18.55470099099604</v>
+        <v>18.55470099099811</v>
       </c>
       <c r="M81" t="n">
-        <v>0.2247725997923192</v>
+        <v>0.2247725997922721</v>
       </c>
       <c r="N81" t="n">
-        <v>2.584099808312795</v>
+        <v>2.584099808312342</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0005115000000017744</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.4300441191555</v>
       </c>
       <c r="F82" t="n">
-        <v>28.0353145434003</v>
+        <v>28.03531454339854</v>
       </c>
       <c r="G82" t="n">
-        <v>87.82061767092286</v>
+        <v>87.82061767092212</v>
       </c>
       <c r="H82" t="n">
-        <v>11.28732071620857</v>
+        <v>11.28732071620772</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>29.08757429872454</v>
+        <v>29.08757429872437</v>
       </c>
       <c r="L82" t="n">
-        <v>29.67537662948791</v>
+        <v>29.67537662948599</v>
       </c>
       <c r="M82" t="n">
-        <v>0.130118432356864</v>
+        <v>0.1301184323568803</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2519246069452016</v>
+        <v>0.2519246069455554</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003144000000077085</v>
+        <v>0.0002722000000048297</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.4079701026656091</v>
       </c>
       <c r="F83" t="n">
-        <v>27.29998397922721</v>
+        <v>27.29998397922398</v>
       </c>
       <c r="G83" t="n">
-        <v>87.69171254804785</v>
+        <v>87.69171254804837</v>
       </c>
       <c r="H83" t="n">
-        <v>4.650024155563343</v>
+        <v>4.650024155562437</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>15.57010732305551</v>
+        <v>15.57010732305512</v>
       </c>
       <c r="L83" t="n">
-        <v>25.8565365669781</v>
+        <v>25.8565365669746</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1121650526128592</v>
+        <v>0.1121650526128884</v>
       </c>
       <c r="N83" t="n">
-        <v>1.849601126398646</v>
+        <v>1.849601126399258</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002230000000054133</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.7478048791732</v>
       </c>
       <c r="F84" t="n">
-        <v>26.75027015973672</v>
+        <v>26.75027015973601</v>
       </c>
       <c r="G84" t="n">
-        <v>45.646171335349</v>
+        <v>45.64617133534957</v>
       </c>
       <c r="H84" t="n">
-        <v>10.27166297052189</v>
+        <v>10.27166297052131</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>16.76513038364391</v>
+        <v>16.76513038364385</v>
       </c>
       <c r="L84" t="n">
-        <v>34.20444876626605</v>
+        <v>34.2044487662647</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1160267433759532</v>
+        <v>0.1160267433759613</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3892076442523371</v>
+        <v>0.3892076442525283</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003025000000036471</v>
+        <v>0.0001941999999957034</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.7452061341889</v>
       </c>
       <c r="F85" t="n">
-        <v>26.59957572305816</v>
+        <v>26.59957572306001</v>
       </c>
       <c r="G85" t="n">
-        <v>42.99919654221403</v>
+        <v>42.99919654221322</v>
       </c>
       <c r="H85" t="n">
-        <v>10.60663646287168</v>
+        <v>10.60663646287311</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>16.29573102816116</v>
+        <v>16.2957310281613</v>
       </c>
       <c r="L85" t="n">
-        <v>34.6851495886049</v>
+        <v>34.68514958860829</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1083750959511757</v>
+        <v>0.1083750959511562</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4299412772260791</v>
+        <v>0.4299412772255972</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003333999999881598</v>
+        <v>0.0001967999999976655</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.0394836605926723</v>
       </c>
       <c r="F86" t="n">
-        <v>27.63348204479538</v>
+        <v>27.63348204479514</v>
       </c>
       <c r="G86" t="n">
-        <v>6.476999286433829</v>
+        <v>6.476999286433537</v>
       </c>
       <c r="H86" t="n">
-        <v>6.341368175253909</v>
+        <v>6.341368175254281</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4918,13 +4918,13 @@
         <v>3.596937873122722</v>
       </c>
       <c r="L86" t="n">
-        <v>32.64248714202403</v>
+        <v>32.64248714202424</v>
       </c>
       <c r="M86" t="n">
         <v>0.1117894635691615</v>
       </c>
       <c r="N86" t="n">
-        <v>0.6546232571216577</v>
+        <v>0.6546232571215308</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0002303999999995199</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9469447836763</v>
       </c>
       <c r="F87" t="n">
-        <v>27.67745917855568</v>
+        <v>27.67745917855348</v>
       </c>
       <c r="G87" t="n">
-        <v>111.2404535539876</v>
+        <v>111.2404535539887</v>
       </c>
       <c r="H87" t="n">
-        <v>8.2020333018271</v>
+        <v>8.202033301826216</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>25.64293026264995</v>
+        <v>25.64293026264972</v>
       </c>
       <c r="L87" t="n">
-        <v>23.84374427149915</v>
+        <v>23.8437442714969</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1021858034263221</v>
+        <v>0.1021858034263402</v>
       </c>
       <c r="N87" t="n">
-        <v>0.453725073101899</v>
+        <v>0.4537250731023151</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002962000000081844</v>
+        <v>0.0002491000000048871</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1788857156901902</v>
       </c>
       <c r="F88" t="n">
-        <v>28.00393126439284</v>
+        <v>28.00393126439241</v>
       </c>
       <c r="G88" t="n">
-        <v>59.14785596615521</v>
+        <v>59.14785596615534</v>
       </c>
       <c r="H88" t="n">
-        <v>2.744340624274324</v>
+        <v>2.744340624274225</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>8.579691718370817</v>
+        <v>8.579691718370768</v>
       </c>
       <c r="L88" t="n">
-        <v>27.38270104404165</v>
+        <v>27.38270104404114</v>
       </c>
       <c r="M88" t="n">
-        <v>0.1040174825479432</v>
+        <v>0.1040174825479471</v>
       </c>
       <c r="N88" t="n">
-        <v>2.168200360832908</v>
+        <v>2.168200360832997</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.000316500000010933</v>
+        <v>0.0002156999999982645</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.888287343744</v>
       </c>
       <c r="F89" t="n">
-        <v>27.58678264286589</v>
+        <v>27.58678264286067</v>
       </c>
       <c r="G89" t="n">
-        <v>117.8356764699523</v>
+        <v>117.8356764699538</v>
       </c>
       <c r="H89" t="n">
-        <v>13.09486704940927</v>
+        <v>13.09486704940615</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>40.41020335559575</v>
+        <v>40.41020335559531</v>
       </c>
       <c r="L89" t="n">
-        <v>23.15794440459908</v>
+        <v>23.1579444045939</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1035676039688371</v>
+        <v>0.1035676039688793</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4369484768276678</v>
+        <v>0.4369484768286174</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0002746999999985178</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9679347087545</v>
       </c>
       <c r="F90" t="n">
-        <v>28.13223912719528</v>
+        <v>28.13223912719594</v>
       </c>
       <c r="G90" t="n">
-        <v>117.1126934720185</v>
+        <v>117.112693472018</v>
       </c>
       <c r="H90" t="n">
-        <v>8.351405619437406</v>
+        <v>8.351405619437662</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>25.68504745570899</v>
+        <v>25.68504745570904</v>
       </c>
       <c r="L90" t="n">
-        <v>23.24544627266586</v>
+        <v>23.24544627266653</v>
       </c>
       <c r="M90" t="n">
-        <v>0.09912986946105404</v>
+        <v>0.0991298694610486</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3843025067560669</v>
+        <v>0.3843025067559248</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003087000000050466</v>
+        <v>0.0002034000000037395</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.5081190079641331</v>
       </c>
       <c r="F91" t="n">
-        <v>26.63818972244627</v>
+        <v>26.63818972244555</v>
       </c>
       <c r="G91" t="n">
-        <v>122.562706261334</v>
+        <v>122.5627062613364</v>
       </c>
       <c r="H91" t="n">
-        <v>4.830974215253836</v>
+        <v>4.830974215253688</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>16.75549957219591</v>
+        <v>16.75549957219582</v>
       </c>
       <c r="L91" t="n">
-        <v>21.827321401036</v>
+        <v>21.82732140103512</v>
       </c>
       <c r="M91" t="n">
-        <v>0.1239791417231697</v>
+        <v>0.1239791417231787</v>
       </c>
       <c r="N91" t="n">
-        <v>1.823980874676734</v>
+        <v>1.823980874676925</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003238999999979342</v>
+        <v>0.0002203999999963457</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.06734600045980398</v>
       </c>
       <c r="F92" t="n">
-        <v>27.55909771099094</v>
+        <v>27.559097710991</v>
       </c>
       <c r="G92" t="n">
-        <v>31.99853010421546</v>
+        <v>31.99853010421898</v>
       </c>
       <c r="H92" t="n">
-        <v>3.138205885740061</v>
+        <v>3.138205885739665</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>6.485171864720726</v>
+        <v>6.485171864720714</v>
       </c>
       <c r="L92" t="n">
-        <v>28.31758768668826</v>
+        <v>28.31758768668779</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1073384056268552</v>
+        <v>0.1073384056268568</v>
       </c>
       <c r="N92" t="n">
-        <v>1.314785655769351</v>
+        <v>1.314785655769672</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002956000000011727</v>
+        <v>0.0002388999999993757</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1818363053204348</v>
       </c>
       <c r="F93" t="n">
-        <v>27.51615390879133</v>
+        <v>27.51615390879066</v>
       </c>
       <c r="G93" t="n">
-        <v>47.49502605387043</v>
+        <v>47.49502605387008</v>
       </c>
       <c r="H93" t="n">
-        <v>4.125309041523419</v>
+        <v>4.125309041523246</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>9.856391216817345</v>
+        <v>9.856391216817256</v>
       </c>
       <c r="L93" t="n">
-        <v>28.66752736418406</v>
+        <v>28.66752736418326</v>
       </c>
       <c r="M93" t="n">
-        <v>0.09787593768328957</v>
+        <v>0.09787593768329444</v>
       </c>
       <c r="N93" t="n">
-        <v>1.653877131363526</v>
+        <v>1.653877131363647</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003012999999896238</v>
+        <v>0.0002040000000036457</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9309102274653</v>
       </c>
       <c r="F94" t="n">
-        <v>28.51449141612384</v>
+        <v>28.51449141612623</v>
       </c>
       <c r="G94" t="n">
-        <v>159.95740916317</v>
+        <v>159.9574091631688</v>
       </c>
       <c r="H94" t="n">
-        <v>11.80618602429968</v>
+        <v>11.80618602430077</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>25.4518223594807</v>
+        <v>25.45182235948112</v>
       </c>
       <c r="L94" t="n">
-        <v>13.94178313801469</v>
+        <v>13.94178313801613</v>
       </c>
       <c r="M94" t="n">
-        <v>0.08734709501538301</v>
+        <v>0.08734709501536442</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2890044321664751</v>
+        <v>0.2890044321659597</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003305999999980713</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.5109405758969</v>
       </c>
       <c r="F95" t="n">
-        <v>28.36734960297078</v>
+        <v>28.36734960297127</v>
       </c>
       <c r="G95" t="n">
-        <v>102.4913749191922</v>
+        <v>102.4913749191934</v>
       </c>
       <c r="H95" t="n">
-        <v>10.60332692193707</v>
+        <v>10.60332692193726</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>30.13678376215281</v>
+        <v>30.13678376215291</v>
       </c>
       <c r="L95" t="n">
-        <v>26.59235586179054</v>
+        <v>26.59235586179077</v>
       </c>
       <c r="M95" t="n">
-        <v>0.1128115021834787</v>
+        <v>0.1128115021834754</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2920726409147286</v>
+        <v>0.2920726409146199</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003296000000005961</v>
+        <v>0.0002186999999977957</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.776964035346</v>
       </c>
       <c r="F96" t="n">
-        <v>28.21495598680494</v>
+        <v>28.21495598680567</v>
       </c>
       <c r="G96" t="n">
         <v>126.3680896754203</v>
       </c>
       <c r="H96" t="n">
-        <v>9.477558148363002</v>
+        <v>9.477558148363331</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>28.45619352454104</v>
+        <v>28.45619352454116</v>
       </c>
       <c r="L96" t="n">
-        <v>21.44549322708643</v>
+        <v>21.44549322708703</v>
       </c>
       <c r="M96" t="n">
-        <v>0.1036075461339612</v>
+        <v>0.1036075461339554</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3987691314411395</v>
+        <v>0.3987691314409879</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0001959000000013589</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1992866698657448</v>
       </c>
       <c r="F97" t="n">
-        <v>28.07392282969885</v>
+        <v>28.07392282969935</v>
       </c>
       <c r="G97" t="n">
-        <v>61.44148038123402</v>
+        <v>61.4414803812365</v>
       </c>
       <c r="H97" t="n">
-        <v>2.953385570519002</v>
+        <v>2.953385570519014</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>9.165753807175623</v>
+        <v>9.165753807175687</v>
       </c>
       <c r="L97" t="n">
-        <v>27.50281688007535</v>
+        <v>27.50281688007573</v>
       </c>
       <c r="M97" t="n">
-        <v>0.09773962019190895</v>
+        <v>0.097739620191906</v>
       </c>
       <c r="N97" t="n">
-        <v>1.940348707977023</v>
+        <v>1.940348707977045</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003210999999936348</v>
+        <v>0.0002495999999965193</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9790456675702</v>
       </c>
       <c r="F98" t="n">
-        <v>26.56659440697526</v>
+        <v>26.5665944069786</v>
       </c>
       <c r="G98" t="n">
-        <v>38.4417631688037</v>
+        <v>38.44176316880513</v>
       </c>
       <c r="H98" t="n">
-        <v>11.67074893892769</v>
+        <v>11.67074893892936</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>15.77970803473041</v>
+        <v>15.7797080347307</v>
       </c>
       <c r="L98" t="n">
-        <v>36.28692993534078</v>
+        <v>36.28692993534571</v>
       </c>
       <c r="M98" t="n">
-        <v>0.1003579978354094</v>
+        <v>0.1003579978353842</v>
       </c>
       <c r="N98" t="n">
-        <v>0.6936256815582769</v>
+        <v>0.6936256815576738</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.0001944999999992092</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.5253563253876018</v>
       </c>
       <c r="F99" t="n">
-        <v>24.76162878834913</v>
+        <v>24.76162878835317</v>
       </c>
       <c r="G99" t="n">
-        <v>157.127971057695</v>
+        <v>157.1279710576932</v>
       </c>
       <c r="H99" t="n">
-        <v>12.05688063759951</v>
+        <v>12.05688063760182</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>38.54112157812608</v>
+        <v>38.54112157812697</v>
       </c>
       <c r="L99" t="n">
-        <v>11.2681783118701</v>
+        <v>11.26817831187236</v>
       </c>
       <c r="M99" t="n">
-        <v>0.126673995647243</v>
+        <v>0.1266739956471672</v>
       </c>
       <c r="N99" t="n">
-        <v>1.183644404926754</v>
+        <v>1.183644404925852</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0001937000000040712</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.8578848756203</v>
       </c>
       <c r="F100" t="n">
-        <v>27.69976154194561</v>
+        <v>27.69976154194505</v>
       </c>
       <c r="G100" t="n">
-        <v>130.7786980239103</v>
+        <v>130.7786980239112</v>
       </c>
       <c r="H100" t="n">
-        <v>8.839138878335945</v>
+        <v>8.839138878335753</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>26.70626180032159</v>
+        <v>26.70626180032155</v>
       </c>
       <c r="L100" t="n">
-        <v>20.3235601460453</v>
+        <v>20.3235601460447</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1126174089294388</v>
+        <v>0.1126174089294437</v>
       </c>
       <c r="N100" t="n">
-        <v>0.4592481702079341</v>
+        <v>0.4592481702080124</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002988000000101465</v>
+        <v>0.0001931000000041649</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.04270765281058021</v>
       </c>
       <c r="F101" t="n">
-        <v>27.66437885116748</v>
+        <v>27.66437885116956</v>
       </c>
       <c r="G101" t="n">
-        <v>124.2379575662563</v>
+        <v>124.2379575662556</v>
       </c>
       <c r="H101" t="n">
-        <v>8.00140641441075</v>
+        <v>8.001406414411557</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>24.92300748044244</v>
+        <v>24.9230074804427</v>
       </c>
       <c r="L101" t="n">
-        <v>21.66318684185427</v>
+        <v>21.66318684185611</v>
       </c>
       <c r="M101" t="n">
-        <v>0.09677747731246036</v>
+        <v>0.09677747731244354</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5503923054273383</v>
+        <v>0.5503923054269018</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003712999999976319</v>
+        <v>0.0001981999999998152</v>
       </c>
     </row>
   </sheetData>
